--- a/C1300-12XS_VI.xlsx
+++ b/C1300-12XS_VI.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\TSKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61A4966-C6F4-4BA4-BE5F-B1E6B5BCAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C82DA7-9A37-4CC1-94AE-A3D58779C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
   <sheets>
     <sheet name="C1300-12XS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/C1300-12XS_VI.xlsx
+++ b/C1300-12XS_VI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\TSKT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\spec1806\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C82DA7-9A37-4CC1-94AE-A3D58779C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BD38CD-3C0E-4BBF-8789-D282F69482E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>TT</t>
   </si>
@@ -48,18 +48,12 @@
     <t>Bộ nhớ DRAM</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
     <t>Giao diện kết nối</t>
   </si>
   <si>
     <t>Jumbo ethernet frames</t>
   </si>
   <si>
-    <t>Bảo mật</t>
-  </si>
-  <si>
     <t>Khả năng quản trị Management</t>
   </si>
   <si>
@@ -111,15 +105,6 @@
     <t>4093 VLANs</t>
   </si>
   <si>
-    <t>Secure Shell (SSH) Protocol,Secure Sockets Layer (SSL),IEEE 802.1X,BPDU,STP Root Guard,DHCP snooping,IPSG,DAI,IPMB,SCT,SSD,Private VLAN,Port Security,RADIUS/TACACS+,DoS prevention,ACLs</t>
-  </si>
-  <si>
-    <t>Spanning Tree Protocol,Port grouping/link aggregation,VLAN,Q-in-Q,GVRP,GARP,UDLD,DHCP Relay,IGMP,HOL,Loopback detection</t>
-  </si>
-  <si>
-    <t>IPv4 routing,IPv6 routing,Layer 3 interface,CIDR,RIP v2,PBR,DHCP Server,DHCP Relay,UDP Relay</t>
-  </si>
-  <si>
     <t>100-240V 50-60 Hz</t>
   </si>
   <si>
@@ -138,29 +123,36 @@
     <t>Khả năng chuyển gói Forwarding rate (64-byte packets)</t>
   </si>
   <si>
+    <t>16,000 địa chỉ</t>
+  </si>
+  <si>
+    <t>Kích thước frame lên đến 9000 byte. MTU mặc định là 2000 byte</t>
+  </si>
+  <si>
+    <t>WebUI, CLI</t>
+  </si>
+  <si>
+    <t>Hỗ trợ lên tới 8 thiết bị</t>
+  </si>
+  <si>
+    <t>300 x 268 x 44 mm</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 	
-●  10 x 10 Gigabit SFP+
-●  2 x 10 Gigabit copper ports (combo with 2 x SFP+)
-●  1 x GE management port
-●  Rack-mountable </t>
-  </si>
-  <si>
-    <t>Hỗ trợ lên tới 1024 rules</t>
-  </si>
-  <si>
-    <t>16,000 địa chỉ</t>
-  </si>
-  <si>
-    <t>Kích thước frame lên đến 9000 byte. MTU mặc định là 2000 byte</t>
-  </si>
-  <si>
-    <t>WebUI, CLI</t>
-  </si>
-  <si>
-    <t>Hỗ trợ lên tới 8 thiết bị</t>
-  </si>
-  <si>
-    <t>300 x 268 x 44 mm</t>
+10 x 10 Gigabit SFP+
+2 x 10G copper/SFP+ combo</t>
+  </si>
+  <si>
+    <t>Hỗ trợ lên tới 1024 quy tắc</t>
+  </si>
+  <si>
+    <t>Spanning Tree Protocol, Port grouping/link aggregation, VLAN, Voice VLAN, Multicast TV VLAN, VLAN translation, UDLD, DHCP relay at Layer 2, IGMP, HOL…</t>
+  </si>
+  <si>
+    <t>IPv4 routing, IPv6 routing, Layer 3 interface, CIDR, RIPv2, PBR, DHCP server, DHCP relay at Layer 3, UDP…</t>
+  </si>
+  <si>
+    <t>Flash</t>
   </si>
 </sst>
 </file>
@@ -261,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,9 +261,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -284,6 +273,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -292,6 +284,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B73E3E-A3BB-4615-9B13-2F589783187D}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +616,7 @@
   <cols>
     <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,192 +626,183 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
-        <v>33</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+    <row r="8" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>38</v>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="69" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>26</v>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
-      <c r="B16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>27</v>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
-      <c r="B17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="B18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>25</v>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
